--- a/Cyen_Project/Cyen_Project/course_spreadsheet.xlsx
+++ b/Cyen_Project/Cyen_Project/course_spreadsheet.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Cyen_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dftba\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB48C706-EB46-44FE-A89E-6A53912E2516}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CD6310-96DB-4780-B172-53AF1D019D62}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="7032" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATHSTATS" sheetId="1" r:id="rId1"/>
     <sheet name="CSCCYEN" sheetId="2" r:id="rId2"/>
     <sheet name="ENGR" sheetId="3" r:id="rId3"/>
-    <sheet name="MAJORS" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Physics&amp;Biology" sheetId="5" r:id="rId4"/>
+    <sheet name="English&amp;Comm" sheetId="6" r:id="rId5"/>
+    <sheet name="MAJORS" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>Course:</t>
   </si>
@@ -268,12 +269,6 @@
     <t>CSC Elective</t>
   </si>
   <si>
-    <t>*Information Warfare*</t>
-  </si>
-  <si>
-    <t>*Security Policy &amp; Legal Issues*</t>
-  </si>
-  <si>
     <t>Math/Sci. Elective</t>
   </si>
   <si>
@@ -293,6 +288,24 @@
   </si>
   <si>
     <t>CoReqs:</t>
+  </si>
+  <si>
+    <t>Prereqs:</t>
+  </si>
+  <si>
+    <t>Coreqs:</t>
+  </si>
+  <si>
+    <t>BISC 102</t>
+  </si>
+  <si>
+    <t>MATH 242, PHYS 201</t>
+  </si>
+  <si>
+    <t>CoReq:</t>
+  </si>
+  <si>
+    <t>History</t>
   </si>
 </sst>
 </file>
@@ -682,19 +695,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.140625" style="1"/>
-    <col min="3" max="3" width="28.42578125" style="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="14.140625" style="1"/>
+    <col min="1" max="2" width="14.109375" style="1"/>
+    <col min="3" max="3" width="28.44140625" style="1"/>
+    <col min="4" max="4" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="14.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,7 +719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -717,7 +728,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -729,7 +740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -741,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -753,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -765,7 +776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -777,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -789,7 +800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -801,7 +812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -821,20 +832,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.140625"/>
-    <col min="3" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="14.140625"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375"/>
+    <col min="3" max="4" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="14.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -842,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -859,7 +871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -871,7 +883,7 @@
         <v>CSC/CYEN 130</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -883,7 +895,7 @@
         <v>CSC/CYEN 131</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -894,7 +906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -905,7 +917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -916,7 +928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -927,7 +939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -938,7 +950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -949,7 +961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -960,7 +972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -971,7 +983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -982,7 +994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -993,7 +1005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1015,7 +1027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1026,7 +1038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1048,7 +1060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -1070,7 +1082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1080,6 +1092,12 @@
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1089,136 +1107,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.140625"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="14.140625"/>
+    <col min="1" max="2" width="14.109375"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="1026" width="14.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1227,21 +1258,221 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81C8E89-6E2D-4354-BEDF-AF9544AB587A}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30223C7A-4B2A-4B11-B094-B283774D18A0}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625"/>
-    <col min="2" max="2" width="16.42578125"/>
-    <col min="3" max="1025" width="14.140625"/>
+    <col min="1" max="1" width="28.109375"/>
+    <col min="2" max="2" width="16.44140625"/>
+    <col min="3" max="1025" width="14.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -1249,22 +1480,22 @@
         <v>60</v>
       </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1272,7 +1503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1280,7 +1511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1288,7 +1519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1296,7 +1527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +1535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +1543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1320,7 +1551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1328,7 +1559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -1336,7 +1567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -1344,7 +1575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1352,7 +1583,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1360,7 +1591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1376,7 +1607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -1384,7 +1615,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1392,7 +1623,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1400,7 +1631,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1408,7 +1639,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -1416,7 +1647,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -1424,7 +1655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1432,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1440,7 +1671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -1448,7 +1679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1456,7 +1687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1464,7 +1695,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -1472,7 +1703,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1480,7 +1711,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -1488,7 +1719,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -1496,7 +1727,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +1735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1512,7 +1743,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -1520,7 +1751,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -1528,7 +1759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -1536,7 +1767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -1544,7 +1775,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -1552,7 +1783,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -1560,7 +1791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -1568,7 +1799,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -1576,46 +1807,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81C8E89-6E2D-4354-BEDF-AF9544AB587A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Cyen_Project/Cyen_Project/course_spreadsheet.xlsx
+++ b/Cyen_Project/Cyen_Project/course_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dftba\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CD6310-96DB-4780-B172-53AF1D019D62}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79E6D3F-DA2E-476A-A25B-4F7952D23BAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="7032" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="7032" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATHSTATS" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="90">
   <si>
     <t>Course:</t>
   </si>
@@ -98,9 +98,6 @@
     <t>CYEN 400</t>
   </si>
   <si>
-    <t>Junior</t>
-  </si>
-  <si>
     <t>CYEN 480</t>
   </si>
   <si>
@@ -110,15 +107,9 @@
     <t>CYEN 481</t>
   </si>
   <si>
-    <t>CYEN 480, Senior</t>
-  </si>
-  <si>
     <t>CYEN 482</t>
   </si>
   <si>
-    <t>CSC/CYEN 132, *MATH 240</t>
-  </si>
-  <si>
     <t>CSC 222</t>
   </si>
   <si>
@@ -134,15 +125,9 @@
     <t>CSC 265</t>
   </si>
   <si>
-    <t>CSC 132, *MATH 240</t>
-  </si>
-  <si>
     <t>CSC 310</t>
   </si>
   <si>
-    <t>CSC 220, *MATH 311</t>
-  </si>
-  <si>
     <t>CSC 330</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t>CSC 403</t>
   </si>
   <si>
-    <t>CSC 325, Senior</t>
-  </si>
-  <si>
     <t>CSC 404</t>
   </si>
   <si>
@@ -164,21 +146,12 @@
     <t>ENGR 120</t>
   </si>
   <si>
-    <t>*MATH 240, *CHEM 100</t>
-  </si>
-  <si>
     <t>ENGR 121</t>
   </si>
   <si>
-    <t>ENGR 120, *MATH 241, *CHEM 101</t>
-  </si>
-  <si>
     <t>ENGR 122</t>
   </si>
   <si>
-    <t>ENGR 121, *MATH 242</t>
-  </si>
-  <si>
     <t>ENGR 220</t>
   </si>
   <si>
@@ -197,9 +170,6 @@
     <t>ELEN 242</t>
   </si>
   <si>
-    <t>*MATH 242</t>
-  </si>
-  <si>
     <t>ELEN 333</t>
   </si>
   <si>
@@ -306,6 +276,30 @@
   </si>
   <si>
     <t>History</t>
+  </si>
+  <si>
+    <t>MATH 240, CHEM 100</t>
+  </si>
+  <si>
+    <t>ENGR 120, MATH 241, CHEM 101</t>
+  </si>
+  <si>
+    <t>ENGR 121, MATH 242</t>
+  </si>
+  <si>
+    <t>Junior Level Standing</t>
+  </si>
+  <si>
+    <t>CSC 325, Senior Level Standing</t>
+  </si>
+  <si>
+    <t>CYEN 480, Senior Level Standing</t>
+  </si>
+  <si>
+    <t>CSC/CYEN 132, MATH 240</t>
+  </si>
+  <si>
+    <t>CSC 132, MATH 240</t>
   </si>
 </sst>
 </file>
@@ -695,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -834,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -854,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -914,40 +908,40 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
@@ -958,133 +952,133 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -1110,7 +1104,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -1136,115 +1130,115 @@
     </row>
     <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -1259,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81C8E89-6E2D-4354-BEDF-AF9544AB587A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1281,15 +1275,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1297,43 +1291,40 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1341,13 +1332,35 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>70</v>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1359,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30223C7A-4B2A-4B11-B094-B283774D18A0}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1378,15 +1391,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1394,7 +1407,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1402,51 +1415,51 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1461,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1474,25 +1487,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -1532,47 +1545,47 @@
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -1580,76 +1593,76 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
@@ -1657,7 +1670,7 @@
     </row>
     <row r="22" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -1665,7 +1678,7 @@
     </row>
     <row r="23" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
@@ -1673,7 +1686,7 @@
     </row>
     <row r="24" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -1681,7 +1694,7 @@
     </row>
     <row r="25" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
@@ -1689,10 +1702,10 @@
     </row>
     <row r="26" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -1700,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -1708,7 +1721,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -1716,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -1724,7 +1737,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -1732,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -1740,7 +1753,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -1748,23 +1761,23 @@
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -1772,63 +1785,63 @@
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
